--- a/data/MEVGAL-Dairy-Sales/product1-2020.xlsx
+++ b/data/MEVGAL-Dairy-Sales/product1-2020.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iatropoulos\Desktop\Dataset to be published\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msoltani/My Drive/_03_Projects/Intro-to-Data-Analytics/data/MEVGAL-Dairy-Sales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F25DFB-6490-4966-B744-9FED706FF5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89EF227-BAA3-F945-A8C7-AA5808D2F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,13 +478,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365:XFD367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +554,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -570,7 +583,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -599,7 +612,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -628,7 +641,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -657,7 +670,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -686,7 +699,7 @@
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -715,7 +728,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -744,7 +757,7 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -773,7 +786,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -802,7 +815,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -831,7 +844,7 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -860,7 +873,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -889,7 +902,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -918,7 +931,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -947,7 +960,7 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -976,7 +989,7 @@
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1005,7 +1018,7 @@
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1034,7 +1047,7 @@
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1063,7 +1076,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1092,7 +1105,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1121,7 +1134,7 @@
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1150,7 +1163,7 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1179,7 +1192,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1208,7 +1221,7 @@
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1237,7 +1250,7 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1266,7 +1279,7 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1295,7 +1308,7 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1324,7 +1337,7 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1353,7 +1366,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1382,7 +1395,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1411,7 +1424,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1440,7 +1453,7 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1469,7 +1482,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1498,7 +1511,7 @@
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1527,7 +1540,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1556,7 +1569,7 @@
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1585,7 +1598,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1614,7 +1627,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -1643,7 +1656,7 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1672,7 +1685,7 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10</v>
       </c>
@@ -1701,7 +1714,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>11</v>
       </c>
@@ -1730,7 +1743,7 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12</v>
       </c>
@@ -1759,7 +1772,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1788,7 +1801,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>14</v>
       </c>
@@ -1817,7 +1830,7 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>15</v>
       </c>
@@ -1846,7 +1859,7 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>16</v>
       </c>
@@ -1875,7 +1888,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>17</v>
       </c>
@@ -1904,7 +1917,7 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>18</v>
       </c>
@@ -1933,7 +1946,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>19</v>
       </c>
@@ -1962,7 +1975,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20</v>
       </c>
@@ -1991,7 +2004,7 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21</v>
       </c>
@@ -2020,7 +2033,7 @@
       </c>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>22</v>
       </c>
@@ -2049,7 +2062,7 @@
       </c>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>23</v>
       </c>
@@ -2078,7 +2091,7 @@
       </c>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>24</v>
       </c>
@@ -2107,7 +2120,7 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25</v>
       </c>
@@ -2136,7 +2149,7 @@
       </c>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2165,7 +2178,7 @@
       </c>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27</v>
       </c>
@@ -2194,7 +2207,7 @@
       </c>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>28</v>
       </c>
@@ -2223,7 +2236,7 @@
       </c>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>29</v>
       </c>
@@ -2252,7 +2265,7 @@
       </c>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2281,7 +2294,7 @@
       </c>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2310,7 +2323,7 @@
       </c>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2339,7 +2352,7 @@
       </c>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2368,7 +2381,7 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2397,7 +2410,7 @@
       </c>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2426,7 +2439,7 @@
       </c>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2455,7 +2468,7 @@
       </c>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2484,7 +2497,7 @@
       </c>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2513,7 +2526,7 @@
       </c>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2542,7 +2555,7 @@
       </c>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2571,7 +2584,7 @@
       </c>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2600,7 +2613,7 @@
       </c>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>13</v>
       </c>
@@ -2629,7 +2642,7 @@
       </c>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>14</v>
       </c>
@@ -2658,7 +2671,7 @@
       </c>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>15</v>
       </c>
@@ -2687,7 +2700,7 @@
       </c>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>16</v>
       </c>
@@ -2716,7 +2729,7 @@
       </c>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>17</v>
       </c>
@@ -2745,7 +2758,7 @@
       </c>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>18</v>
       </c>
@@ -2774,7 +2787,7 @@
       </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>19</v>
       </c>
@@ -2803,7 +2816,7 @@
       </c>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20</v>
       </c>
@@ -2832,7 +2845,7 @@
       </c>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21</v>
       </c>
@@ -2861,7 +2874,7 @@
       </c>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22</v>
       </c>
@@ -2890,7 +2903,7 @@
       </c>
       <c r="M83" s="4"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>23</v>
       </c>
@@ -2919,7 +2932,7 @@
       </c>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24</v>
       </c>
@@ -2948,7 +2961,7 @@
       </c>
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>25</v>
       </c>
@@ -2977,7 +2990,7 @@
       </c>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>26</v>
       </c>
@@ -3006,7 +3019,7 @@
       </c>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>27</v>
       </c>
@@ -3035,7 +3048,7 @@
       </c>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>28</v>
       </c>
@@ -3064,7 +3077,7 @@
       </c>
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>29</v>
       </c>
@@ -3093,7 +3106,7 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>30</v>
       </c>
@@ -3122,7 +3135,7 @@
       </c>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>31</v>
       </c>
@@ -3151,7 +3164,7 @@
       </c>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3180,7 +3193,7 @@
       </c>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3209,7 +3222,7 @@
       </c>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -3238,7 +3251,7 @@
       </c>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3267,7 +3280,7 @@
       </c>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -3296,7 +3309,7 @@
       </c>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6</v>
       </c>
@@ -3325,7 +3338,7 @@
       </c>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7</v>
       </c>
@@ -3354,7 +3367,7 @@
       </c>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -3383,7 +3396,7 @@
       </c>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9</v>
       </c>
@@ -3412,7 +3425,7 @@
       </c>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10</v>
       </c>
@@ -3441,7 +3454,7 @@
       </c>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>11</v>
       </c>
@@ -3470,7 +3483,7 @@
       </c>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>12</v>
       </c>
@@ -3499,7 +3512,7 @@
       </c>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>13</v>
       </c>
@@ -3528,7 +3541,7 @@
       </c>
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3557,7 +3570,7 @@
       </c>
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>15</v>
       </c>
@@ -3586,7 +3599,7 @@
       </c>
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>16</v>
       </c>
@@ -3615,7 +3628,7 @@
       </c>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>17</v>
       </c>
@@ -3644,7 +3657,7 @@
       </c>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>18</v>
       </c>
@@ -3673,7 +3686,7 @@
       </c>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20</v>
       </c>
@@ -3702,7 +3715,7 @@
       </c>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>21</v>
       </c>
@@ -3731,7 +3744,7 @@
       </c>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>22</v>
       </c>
@@ -3760,7 +3773,7 @@
       </c>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>23</v>
       </c>
@@ -3789,7 +3802,7 @@
       </c>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>24</v>
       </c>
@@ -3818,7 +3831,7 @@
       </c>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>25</v>
       </c>
@@ -3847,7 +3860,7 @@
       </c>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>26</v>
       </c>
@@ -3876,7 +3889,7 @@
       </c>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27</v>
       </c>
@@ -3905,7 +3918,7 @@
       </c>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>28</v>
       </c>
@@ -3934,7 +3947,7 @@
       </c>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>29</v>
       </c>
@@ -3963,7 +3976,7 @@
       </c>
       <c r="M120" s="4"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>30</v>
       </c>
@@ -3992,7 +4005,7 @@
       </c>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4021,7 +4034,7 @@
       </c>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -4050,7 +4063,7 @@
       </c>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4079,7 +4092,7 @@
       </c>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4108,7 +4121,7 @@
       </c>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4137,7 +4150,7 @@
       </c>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4166,7 +4179,7 @@
       </c>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -4195,7 +4208,7 @@
       </c>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -4224,7 +4237,7 @@
       </c>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -4253,7 +4266,7 @@
       </c>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -4282,7 +4295,7 @@
       </c>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -4311,7 +4324,7 @@
       </c>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -4340,7 +4353,7 @@
       </c>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13</v>
       </c>
@@ -4369,7 +4382,7 @@
       </c>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4398,7 +4411,7 @@
       </c>
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15</v>
       </c>
@@ -4427,7 +4440,7 @@
       </c>
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16</v>
       </c>
@@ -4456,7 +4469,7 @@
       </c>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>17</v>
       </c>
@@ -4485,7 +4498,7 @@
       </c>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>18</v>
       </c>
@@ -4514,7 +4527,7 @@
       </c>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>19</v>
       </c>
@@ -4543,7 +4556,7 @@
       </c>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20</v>
       </c>
@@ -4572,7 +4585,7 @@
       </c>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>21</v>
       </c>
@@ -4601,7 +4614,7 @@
       </c>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>22</v>
       </c>
@@ -4630,7 +4643,7 @@
       </c>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>23</v>
       </c>
@@ -4659,7 +4672,7 @@
       </c>
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>24</v>
       </c>
@@ -4688,7 +4701,7 @@
       </c>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>25</v>
       </c>
@@ -4717,7 +4730,7 @@
       </c>
       <c r="M146" s="4"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>26</v>
       </c>
@@ -4746,7 +4759,7 @@
       </c>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>27</v>
       </c>
@@ -4775,7 +4788,7 @@
       </c>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>28</v>
       </c>
@@ -4804,7 +4817,7 @@
       </c>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>29</v>
       </c>
@@ -4833,7 +4846,7 @@
       </c>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>30</v>
       </c>
@@ -4862,7 +4875,7 @@
       </c>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>31</v>
       </c>
@@ -4891,7 +4904,7 @@
       </c>
       <c r="M152" s="4"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4920,7 +4933,7 @@
       </c>
       <c r="M153" s="4"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -4949,7 +4962,7 @@
       </c>
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4978,7 +4991,7 @@
       </c>
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
@@ -5007,7 +5020,7 @@
       </c>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>5</v>
       </c>
@@ -5036,7 +5049,7 @@
       </c>
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5065,7 +5078,7 @@
       </c>
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -5094,7 +5107,7 @@
       </c>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8</v>
       </c>
@@ -5123,7 +5136,7 @@
       </c>
       <c r="M160" s="4"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9</v>
       </c>
@@ -5152,7 +5165,7 @@
       </c>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10</v>
       </c>
@@ -5181,7 +5194,7 @@
       </c>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>11</v>
       </c>
@@ -5210,7 +5223,7 @@
       </c>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>12</v>
       </c>
@@ -5239,7 +5252,7 @@
       </c>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>13</v>
       </c>
@@ -5268,7 +5281,7 @@
       </c>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5297,7 +5310,7 @@
       </c>
       <c r="M166" s="4"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>15</v>
       </c>
@@ -5326,7 +5339,7 @@
       </c>
       <c r="M167" s="4"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>16</v>
       </c>
@@ -5355,7 +5368,7 @@
       </c>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>17</v>
       </c>
@@ -5384,7 +5397,7 @@
       </c>
       <c r="M169" s="4"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>18</v>
       </c>
@@ -5413,7 +5426,7 @@
       </c>
       <c r="M170" s="4"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>19</v>
       </c>
@@ -5442,7 +5455,7 @@
       </c>
       <c r="M171" s="4"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>20</v>
       </c>
@@ -5471,7 +5484,7 @@
       </c>
       <c r="M172" s="4"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>21</v>
       </c>
@@ -5500,7 +5513,7 @@
       </c>
       <c r="M173" s="4"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>22</v>
       </c>
@@ -5529,7 +5542,7 @@
       </c>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>23</v>
       </c>
@@ -5558,7 +5571,7 @@
       </c>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>24</v>
       </c>
@@ -5587,7 +5600,7 @@
       </c>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>25</v>
       </c>
@@ -5616,7 +5629,7 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>26</v>
       </c>
@@ -5645,7 +5658,7 @@
       </c>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>27</v>
       </c>
@@ -5674,7 +5687,7 @@
       </c>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>28</v>
       </c>
@@ -5703,7 +5716,7 @@
       </c>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>29</v>
       </c>
@@ -5732,7 +5745,7 @@
       </c>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>30</v>
       </c>
@@ -5761,7 +5774,7 @@
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5790,7 +5803,7 @@
       </c>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -5819,7 +5832,7 @@
       </c>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5848,7 +5861,7 @@
       </c>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4</v>
       </c>
@@ -5877,7 +5890,7 @@
       </c>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5</v>
       </c>
@@ -5906,7 +5919,7 @@
       </c>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6</v>
       </c>
@@ -5935,7 +5948,7 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -5964,7 +5977,7 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -5993,7 +6006,7 @@
       </c>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>9</v>
       </c>
@@ -6022,7 +6035,7 @@
       </c>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10</v>
       </c>
@@ -6051,7 +6064,7 @@
       </c>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11</v>
       </c>
@@ -6080,7 +6093,7 @@
       </c>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>12</v>
       </c>
@@ -6109,7 +6122,7 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>13</v>
       </c>
@@ -6138,7 +6151,7 @@
       </c>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>14</v>
       </c>
@@ -6167,7 +6180,7 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>15</v>
       </c>
@@ -6196,7 +6209,7 @@
       </c>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>16</v>
       </c>
@@ -6225,7 +6238,7 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>17</v>
       </c>
@@ -6254,7 +6267,7 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>18</v>
       </c>
@@ -6283,7 +6296,7 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19</v>
       </c>
@@ -6312,7 +6325,7 @@
       </c>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20</v>
       </c>
@@ -6341,7 +6354,7 @@
       </c>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>21</v>
       </c>
@@ -6370,7 +6383,7 @@
       </c>
       <c r="M203" s="4"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>22</v>
       </c>
@@ -6399,7 +6412,7 @@
       </c>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>23</v>
       </c>
@@ -6428,7 +6441,7 @@
       </c>
       <c r="M205" s="4"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>24</v>
       </c>
@@ -6457,7 +6470,7 @@
       </c>
       <c r="M206" s="4"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>25</v>
       </c>
@@ -6486,7 +6499,7 @@
       </c>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>26</v>
       </c>
@@ -6515,7 +6528,7 @@
       </c>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>27</v>
       </c>
@@ -6544,7 +6557,7 @@
       </c>
       <c r="M209" s="4"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>28</v>
       </c>
@@ -6573,7 +6586,7 @@
       </c>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>29</v>
       </c>
@@ -6602,7 +6615,7 @@
       </c>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>30</v>
       </c>
@@ -6631,7 +6644,7 @@
       </c>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>31</v>
       </c>
@@ -6660,7 +6673,7 @@
       </c>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -6689,7 +6702,7 @@
       </c>
       <c r="M214" s="4"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2</v>
       </c>
@@ -6718,7 +6731,7 @@
       </c>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -6747,7 +6760,7 @@
       </c>
       <c r="M216" s="4"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4</v>
       </c>
@@ -6776,7 +6789,7 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -6805,7 +6818,7 @@
       </c>
       <c r="M218" s="4"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -6834,7 +6847,7 @@
       </c>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -6863,7 +6876,7 @@
       </c>
       <c r="M220" s="4"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -6892,7 +6905,7 @@
       </c>
       <c r="M221" s="4"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9</v>
       </c>
@@ -6921,7 +6934,7 @@
       </c>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -6950,7 +6963,7 @@
       </c>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11</v>
       </c>
@@ -6979,7 +6992,7 @@
       </c>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12</v>
       </c>
@@ -7008,7 +7021,7 @@
       </c>
       <c r="M225" s="4"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>13</v>
       </c>
@@ -7037,7 +7050,7 @@
       </c>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>14</v>
       </c>
@@ -7066,7 +7079,7 @@
       </c>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>15</v>
       </c>
@@ -7095,7 +7108,7 @@
       </c>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>16</v>
       </c>
@@ -7124,7 +7137,7 @@
       </c>
       <c r="M229" s="4"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>17</v>
       </c>
@@ -7153,7 +7166,7 @@
       </c>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>18</v>
       </c>
@@ -7182,7 +7195,7 @@
       </c>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>19</v>
       </c>
@@ -7211,7 +7224,7 @@
       </c>
       <c r="M232" s="4"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>20</v>
       </c>
@@ -7240,7 +7253,7 @@
       </c>
       <c r="M233" s="4"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>21</v>
       </c>
@@ -7269,7 +7282,7 @@
       </c>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>22</v>
       </c>
@@ -7298,7 +7311,7 @@
       </c>
       <c r="M235" s="4"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>23</v>
       </c>
@@ -7327,7 +7340,7 @@
       </c>
       <c r="M236" s="4"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>24</v>
       </c>
@@ -7356,7 +7369,7 @@
       </c>
       <c r="M237" s="4"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>25</v>
       </c>
@@ -7385,7 +7398,7 @@
       </c>
       <c r="M238" s="4"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>26</v>
       </c>
@@ -7414,7 +7427,7 @@
       </c>
       <c r="M239" s="4"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>27</v>
       </c>
@@ -7443,7 +7456,7 @@
       </c>
       <c r="M240" s="4"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>28</v>
       </c>
@@ -7472,7 +7485,7 @@
       </c>
       <c r="M241" s="4"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>29</v>
       </c>
@@ -7501,7 +7514,7 @@
       </c>
       <c r="M242" s="4"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>30</v>
       </c>
@@ -7530,7 +7543,7 @@
       </c>
       <c r="M243" s="4"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>31</v>
       </c>
@@ -7559,7 +7572,7 @@
       </c>
       <c r="M244" s="4"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7588,7 +7601,7 @@
       </c>
       <c r="M245" s="4"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -7617,7 +7630,7 @@
       </c>
       <c r="M246" s="4"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -7646,7 +7659,7 @@
       </c>
       <c r="M247" s="4"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -7675,7 +7688,7 @@
       </c>
       <c r="M248" s="4"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5</v>
       </c>
@@ -7704,7 +7717,7 @@
       </c>
       <c r="M249" s="4"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>6</v>
       </c>
@@ -7733,7 +7746,7 @@
       </c>
       <c r="M250" s="4"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7</v>
       </c>
@@ -7762,7 +7775,7 @@
       </c>
       <c r="M251" s="4"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>8</v>
       </c>
@@ -7791,7 +7804,7 @@
       </c>
       <c r="M252" s="4"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
@@ -7820,7 +7833,7 @@
       </c>
       <c r="M253" s="4"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10</v>
       </c>
@@ -7849,7 +7862,7 @@
       </c>
       <c r="M254" s="4"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11</v>
       </c>
@@ -7878,7 +7891,7 @@
       </c>
       <c r="M255" s="4"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -7907,7 +7920,7 @@
       </c>
       <c r="M256" s="4"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>13</v>
       </c>
@@ -7936,7 +7949,7 @@
       </c>
       <c r="M257" s="4"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7965,7 +7978,7 @@
       </c>
       <c r="M258" s="4"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>15</v>
       </c>
@@ -7994,7 +8007,7 @@
       </c>
       <c r="M259" s="4"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>16</v>
       </c>
@@ -8023,7 +8036,7 @@
       </c>
       <c r="M260" s="4"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>17</v>
       </c>
@@ -8052,7 +8065,7 @@
       </c>
       <c r="M261" s="4"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>18</v>
       </c>
@@ -8081,7 +8094,7 @@
       </c>
       <c r="M262" s="4"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>19</v>
       </c>
@@ -8110,7 +8123,7 @@
       </c>
       <c r="M263" s="4"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20</v>
       </c>
@@ -8139,7 +8152,7 @@
       </c>
       <c r="M264" s="4"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21</v>
       </c>
@@ -8168,7 +8181,7 @@
       </c>
       <c r="M265" s="4"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>22</v>
       </c>
@@ -8197,7 +8210,7 @@
       </c>
       <c r="M266" s="4"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>23</v>
       </c>
@@ -8226,7 +8239,7 @@
       </c>
       <c r="M267" s="4"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>24</v>
       </c>
@@ -8255,7 +8268,7 @@
       </c>
       <c r="M268" s="4"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>25</v>
       </c>
@@ -8284,7 +8297,7 @@
       </c>
       <c r="M269" s="4"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>26</v>
       </c>
@@ -8313,7 +8326,7 @@
       </c>
       <c r="M270" s="4"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>27</v>
       </c>
@@ -8342,7 +8355,7 @@
       </c>
       <c r="M271" s="4"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>28</v>
       </c>
@@ -8371,7 +8384,7 @@
       </c>
       <c r="M272" s="4"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>29</v>
       </c>
@@ -8400,7 +8413,7 @@
       </c>
       <c r="M273" s="4"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>30</v>
       </c>
@@ -8429,7 +8442,7 @@
       </c>
       <c r="M274" s="4"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -8458,7 +8471,7 @@
       </c>
       <c r="M275" s="4"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2</v>
       </c>
@@ -8487,7 +8500,7 @@
       </c>
       <c r="M276" s="4"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3</v>
       </c>
@@ -8516,7 +8529,7 @@
       </c>
       <c r="M277" s="4"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4</v>
       </c>
@@ -8545,7 +8558,7 @@
       </c>
       <c r="M278" s="4"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>5</v>
       </c>
@@ -8574,7 +8587,7 @@
       </c>
       <c r="M279" s="4"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6</v>
       </c>
@@ -8603,7 +8616,7 @@
       </c>
       <c r="M280" s="4"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7</v>
       </c>
@@ -8632,7 +8645,7 @@
       </c>
       <c r="M281" s="4"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -8661,7 +8674,7 @@
       </c>
       <c r="M282" s="4"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9</v>
       </c>
@@ -8690,7 +8703,7 @@
       </c>
       <c r="M283" s="4"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10</v>
       </c>
@@ -8719,7 +8732,7 @@
       </c>
       <c r="M284" s="4"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11</v>
       </c>
@@ -8748,7 +8761,7 @@
       </c>
       <c r="M285" s="4"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12</v>
       </c>
@@ -8777,7 +8790,7 @@
       </c>
       <c r="M286" s="4"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -8806,7 +8819,7 @@
       </c>
       <c r="M287" s="4"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>14</v>
       </c>
@@ -8835,7 +8848,7 @@
       </c>
       <c r="M288" s="4"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>15</v>
       </c>
@@ -8864,7 +8877,7 @@
       </c>
       <c r="M289" s="4"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>16</v>
       </c>
@@ -8893,7 +8906,7 @@
       </c>
       <c r="M290" s="4"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>17</v>
       </c>
@@ -8922,7 +8935,7 @@
       </c>
       <c r="M291" s="4"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>18</v>
       </c>
@@ -8951,7 +8964,7 @@
       </c>
       <c r="M292" s="4"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>19</v>
       </c>
@@ -8980,7 +8993,7 @@
       </c>
       <c r="M293" s="4"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>20</v>
       </c>
@@ -9009,7 +9022,7 @@
       </c>
       <c r="M294" s="4"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>21</v>
       </c>
@@ -9038,7 +9051,7 @@
       </c>
       <c r="M295" s="4"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>22</v>
       </c>
@@ -9067,7 +9080,7 @@
       </c>
       <c r="M296" s="4"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>23</v>
       </c>
@@ -9096,7 +9109,7 @@
       </c>
       <c r="M297" s="4"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>24</v>
       </c>
@@ -9125,7 +9138,7 @@
       </c>
       <c r="M298" s="4"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>25</v>
       </c>
@@ -9154,7 +9167,7 @@
       </c>
       <c r="M299" s="4"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>26</v>
       </c>
@@ -9183,7 +9196,7 @@
       </c>
       <c r="M300" s="4"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>27</v>
       </c>
@@ -9212,7 +9225,7 @@
       </c>
       <c r="M301" s="4"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>28</v>
       </c>
@@ -9241,7 +9254,7 @@
       </c>
       <c r="M302" s="4"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>29</v>
       </c>
@@ -9270,7 +9283,7 @@
       </c>
       <c r="M303" s="4"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>30</v>
       </c>
@@ -9299,7 +9312,7 @@
       </c>
       <c r="M304" s="4"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>31</v>
       </c>
@@ -9328,7 +9341,7 @@
       </c>
       <c r="M305" s="4"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -9357,7 +9370,7 @@
       </c>
       <c r="M306" s="4"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -9386,7 +9399,7 @@
       </c>
       <c r="M307" s="4"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -9415,7 +9428,7 @@
       </c>
       <c r="M308" s="4"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -9444,7 +9457,7 @@
       </c>
       <c r="M309" s="4"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -9473,7 +9486,7 @@
       </c>
       <c r="M310" s="4"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6</v>
       </c>
@@ -9502,7 +9515,7 @@
       </c>
       <c r="M311" s="4"/>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7</v>
       </c>
@@ -9531,7 +9544,7 @@
       </c>
       <c r="M312" s="4"/>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -9560,7 +9573,7 @@
       </c>
       <c r="M313" s="4"/>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>9</v>
       </c>
@@ -9589,7 +9602,7 @@
       </c>
       <c r="M314" s="4"/>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>10</v>
       </c>
@@ -9618,7 +9631,7 @@
       </c>
       <c r="M315" s="4"/>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>11</v>
       </c>
@@ -9647,7 +9660,7 @@
       </c>
       <c r="M316" s="4"/>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -9676,7 +9689,7 @@
       </c>
       <c r="M317" s="4"/>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>13</v>
       </c>
@@ -9705,7 +9718,7 @@
       </c>
       <c r="M318" s="4"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>14</v>
       </c>
@@ -9734,7 +9747,7 @@
       </c>
       <c r="M319" s="4"/>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -9763,7 +9776,7 @@
       </c>
       <c r="M320" s="4"/>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>16</v>
       </c>
@@ -9792,7 +9805,7 @@
       </c>
       <c r="M321" s="4"/>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>17</v>
       </c>
@@ -9821,7 +9834,7 @@
       </c>
       <c r="M322" s="4"/>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>18</v>
       </c>
@@ -9850,7 +9863,7 @@
       </c>
       <c r="M323" s="4"/>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>19</v>
       </c>
@@ -9879,7 +9892,7 @@
       </c>
       <c r="M324" s="4"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20</v>
       </c>
@@ -9908,7 +9921,7 @@
       </c>
       <c r="M325" s="4"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21</v>
       </c>
@@ -9937,7 +9950,7 @@
       </c>
       <c r="M326" s="4"/>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>22</v>
       </c>
@@ -9966,7 +9979,7 @@
       </c>
       <c r="M327" s="4"/>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>23</v>
       </c>
@@ -9995,7 +10008,7 @@
       </c>
       <c r="M328" s="4"/>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>24</v>
       </c>
@@ -10024,7 +10037,7 @@
       </c>
       <c r="M329" s="4"/>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>25</v>
       </c>
@@ -10053,7 +10066,7 @@
       </c>
       <c r="M330" s="4"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>26</v>
       </c>
@@ -10082,7 +10095,7 @@
       </c>
       <c r="M331" s="4"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>27</v>
       </c>
@@ -10111,7 +10124,7 @@
       </c>
       <c r="M332" s="4"/>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>28</v>
       </c>
@@ -10140,7 +10153,7 @@
       </c>
       <c r="M333" s="4"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>29</v>
       </c>
@@ -10169,7 +10182,7 @@
       </c>
       <c r="M334" s="4"/>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>30</v>
       </c>
@@ -10198,7 +10211,7 @@
       </c>
       <c r="M335" s="4"/>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1</v>
       </c>
@@ -10227,7 +10240,7 @@
       </c>
       <c r="M336" s="4"/>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2</v>
       </c>
@@ -10256,7 +10269,7 @@
       </c>
       <c r="M337" s="4"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
@@ -10285,7 +10298,7 @@
       </c>
       <c r="M338" s="4"/>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4</v>
       </c>
@@ -10314,7 +10327,7 @@
       </c>
       <c r="M339" s="4"/>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>5</v>
       </c>
@@ -10343,7 +10356,7 @@
       </c>
       <c r="M340" s="4"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>6</v>
       </c>
@@ -10372,7 +10385,7 @@
       </c>
       <c r="M341" s="4"/>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>7</v>
       </c>
@@ -10401,7 +10414,7 @@
       </c>
       <c r="M342" s="4"/>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>8</v>
       </c>
@@ -10430,7 +10443,7 @@
       </c>
       <c r="M343" s="4"/>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>9</v>
       </c>
@@ -10459,7 +10472,7 @@
       </c>
       <c r="M344" s="4"/>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>10</v>
       </c>
@@ -10488,7 +10501,7 @@
       </c>
       <c r="M345" s="4"/>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>11</v>
       </c>
@@ -10517,7 +10530,7 @@
       </c>
       <c r="M346" s="4"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>12</v>
       </c>
@@ -10546,7 +10559,7 @@
       </c>
       <c r="M347" s="4"/>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>13</v>
       </c>
@@ -10575,7 +10588,7 @@
       </c>
       <c r="M348" s="4"/>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>14</v>
       </c>
@@ -10604,7 +10617,7 @@
       </c>
       <c r="M349" s="4"/>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>15</v>
       </c>
@@ -10633,7 +10646,7 @@
       </c>
       <c r="M350" s="4"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>16</v>
       </c>
@@ -10662,7 +10675,7 @@
       </c>
       <c r="M351" s="4"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>17</v>
       </c>
@@ -10691,7 +10704,7 @@
       </c>
       <c r="M352" s="4"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>18</v>
       </c>
@@ -10720,7 +10733,7 @@
       </c>
       <c r="M353" s="4"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>19</v>
       </c>
@@ -10749,7 +10762,7 @@
       </c>
       <c r="M354" s="4"/>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>20</v>
       </c>
@@ -10778,7 +10791,7 @@
       </c>
       <c r="M355" s="4"/>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>21</v>
       </c>
@@ -10807,7 +10820,7 @@
       </c>
       <c r="M356" s="4"/>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>22</v>
       </c>
@@ -10836,7 +10849,7 @@
       </c>
       <c r="M357" s="4"/>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>23</v>
       </c>
@@ -10865,7 +10878,7 @@
       </c>
       <c r="M358" s="4"/>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>24</v>
       </c>
@@ -10894,7 +10907,7 @@
       </c>
       <c r="M359" s="4"/>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>27</v>
       </c>
@@ -10923,7 +10936,7 @@
       </c>
       <c r="M360" s="4"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>28</v>
       </c>
@@ -10952,7 +10965,7 @@
       </c>
       <c r="M361" s="4"/>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>29</v>
       </c>
@@ -10981,7 +10994,7 @@
       </c>
       <c r="M362" s="4"/>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>30</v>
       </c>
@@ -11010,7 +11023,7 @@
       </c>
       <c r="M363" s="4"/>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>31</v>
       </c>
@@ -11039,7 +11052,7 @@
       </c>
       <c r="M364" s="4"/>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
